--- a/static/checklists/DPDPA_SocialMedia_Checklist.xlsx
+++ b/static/checklists/DPDPA_SocialMedia_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harshparekh/Desktop/clients/Securze/DPDPA/dpdpa-docs/static/checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4983048B-9674-8248-9742-504CCC9F749B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A12D7B-7E70-FF46-B0AB-6513AF13C66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="186">
   <si>
     <t>Rule / Clause</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>Harsh Parekh</t>
   </si>
   <si>
     <t>Email</t>
@@ -592,6 +589,15 @@
   </si>
   <si>
     <t>Business Category</t>
+  </si>
+  <si>
+    <t>Company Website</t>
+  </si>
+  <si>
+    <t>https://dpdpaedu.org</t>
+  </si>
+  <si>
+    <t>Harsh Parekh (Founder &amp; CEO)</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -755,12 +761,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -802,6 +888,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -826,13 +939,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>122904</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>186091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>696452</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>44324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -864,6 +977,50 @@
         <a:xfrm>
           <a:off x="11032204" y="1329091"/>
           <a:ext cx="2224548" cy="620233"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96664321-13D0-7A78-AA8B-D47CE66BF2F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10579100" y="1388269"/>
+          <a:ext cx="3136900" cy="1764506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1162,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B4C768-27D7-1D42-A2FC-04918E72F654}">
-  <dimension ref="B5:G36"/>
+  <dimension ref="B5:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1181,65 +1338,68 @@
       <c r="C5" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>167</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+        <v>183</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -1247,34 +1407,52 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="18">
-        <v>45949</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="18">
+        <v>45949</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="19"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="24"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="24"/>
       <c r="C17" s="24"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -1314,23 +1492,23 @@
       <c r="C26" s="24"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="2:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="2:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B29" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="24"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="24"/>
       <c r="C30" s="24"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
@@ -1354,22 +1532,28 @@
       <c r="C35" s="24"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8yRRfhO/GG6rh5tKCQpy4qDfc/17lgUJqBzeCpJSqEc4xn9f1HO4uSbtKt6hLgyU6BIjGZeplo5hK46KIqnqEg==" saltValue="WjTVD/g5I5jwdr+gHjjXiA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="3">
-    <mergeCell ref="E7:G11"/>
-    <mergeCell ref="B16:C26"/>
-    <mergeCell ref="B29:C35"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="yOmAxw6X4jwaBYw1F/YcoHT/NWgLc02puskV+aoSmKILxs1sGzX9HvQF5VIv4r623W+FRHBshIt5e8lQLjHqyw==" saltValue="W0o2nZYvYZgB9j5UxVtWXg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B17:C27"/>
+    <mergeCell ref="B30:C36"/>
+    <mergeCell ref="E5:G9"/>
+    <mergeCell ref="E11:G15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{4C040AF0-6B14-DA42-96BE-7A317DE897EA}"/>
-    <hyperlink ref="C8" r:id="rId2" xr:uid="{F4650BA8-F382-B644-828C-DF1285D8DA19}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{4C040AF0-6B14-DA42-96BE-7A317DE897EA}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{F4650BA8-F382-B644-828C-DF1285D8DA19}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{3E5B6AD9-9CFD-FF4E-93AB-B3806AEE0384}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1378,7 +1562,7 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
